--- a/jpa2-backend/src/main/resources/excel/savedsearch.xlsx
+++ b/jpa2-backend/src/main/resources/excel/savedsearch.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>${msg.getProperty('savedSearch_id')}</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>${formContent}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('savedSearch_account')}</t>
-  </si>
-  <si>
-    <t>${account}</t>
   </si>
 </sst>
 </file>
@@ -538,14 +532,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/jpa2-backend/src/main/resources/excel/savedsearch.xlsx
+++ b/jpa2-backend/src/main/resources/excel/savedsearch.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>${msg.getProperty('savedSearch_id')}</t>
   </si>
@@ -44,10 +44,10 @@
     <t>${savedSearch.formContent}</t>
   </si>
   <si>
-    <t>${msg.getProperty('savedSearch_accountId')}</t>
-  </si>
-  <si>
-    <t>${savedSearch.accountId}</t>
+    <t>${msg.getProperty('savedSearch_account')}</t>
+  </si>
+  <si>
+    <t>${printer.print(savedSearch.account)}</t>
   </si>
   <si>
     <t>${msg.getProperty('search_date')}</t>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>${formContent}</t>
+  </si>
+  <si>
+    <t>${account}</t>
   </si>
 </sst>
 </file>
@@ -532,6 +535,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/jpa2-backend/src/main/resources/excel/savedsearch.xlsx
+++ b/jpa2-backend/src/main/resources/excel/savedsearch.xlsx
@@ -18,57 +18,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+  <si>
+    <t>${msg.getProperty('savedSearch_name')}</t>
+  </si>
+  <si>
+    <t>${savedSearch.name}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('savedSearch_formClassname')}</t>
+  </si>
+  <si>
+    <t>${savedSearch.formClassname}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('savedSearch_formContent')}</t>
+  </si>
+  <si>
+    <t>${savedSearch.formContent}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_date')}</t>
+  </si>
+  <si>
+    <t>${search_date}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_by')}</t>
+  </si>
+  <si>
+    <t>${search_by}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_nb_results')}</t>
+  </si>
+  <si>
+    <t>${search_nb_results}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('search_criteria')}</t>
+  </si>
   <si>
     <t>${msg.getProperty('savedSearch_id')}</t>
   </si>
   <si>
-    <t>${savedSearch.id}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('savedSearch_name')}</t>
-  </si>
-  <si>
-    <t>${savedSearch.name}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('savedSearch_formClassname')}</t>
-  </si>
-  <si>
-    <t>${savedSearch.formClassname}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('savedSearch_formContent')}</t>
-  </si>
-  <si>
-    <t>${savedSearch.formContent}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('savedSearch_account')}</t>
-  </si>
-  <si>
-    <t>${printer.print(savedSearch.account)}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_date')}</t>
-  </si>
-  <si>
-    <t>${search_date}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_by')}</t>
-  </si>
-  <si>
-    <t>${search_by}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_nb_results')}</t>
-  </si>
-  <si>
-    <t>${search_nb_results}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('search_criteria')}</t>
+    <t>${id}</t>
   </si>
   <si>
     <t>${name}</t>
@@ -80,7 +74,10 @@
     <t>${formContent}</t>
   </si>
   <si>
-    <t>${account}</t>
+    <t>${msg.getProperty('savedSearch_user')}</t>
+  </si>
+  <si>
+    <t>${user}</t>
   </si>
 </sst>
 </file>
@@ -445,12 +442,6 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -461,12 +452,6 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -486,61 +471,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
